--- a/results/mp/tinybert/corona/confidence/126/topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,42 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -97,103 +85,103 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>energy</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>important</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>$</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
@@ -202,64 +190,94 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>_</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>all</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>for</t>
   </si>
   <si>
-    <t>at</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>on</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>?</t>
   </si>
   <si>
     <t>corona</t>
@@ -620,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -789,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7207792207792207</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -939,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4761904761904762</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4721030042918455</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4074074074074074</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3928571428571428</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.375</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8235294117647058</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3448275862068966</v>
+        <v>0.1305555555555556</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8214285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3255813953488372</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>58</v>
+        <v>347</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.803921568627451</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,39 +1349,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1381,483 +1375,411 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2074074074074074</v>
-      </c>
-      <c r="C17">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>28</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>107</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L17">
+        <v>37</v>
+      </c>
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7125</v>
+      </c>
+      <c r="L18">
+        <v>114</v>
+      </c>
+      <c r="M18">
+        <v>114</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.7112676056338029</v>
+      </c>
+      <c r="L19">
+        <v>101</v>
+      </c>
+      <c r="M19">
+        <v>101</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.7</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L17">
-        <v>20</v>
-      </c>
-      <c r="M17">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>90</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K21">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L21">
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>10</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
+      <c r="K22">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L22">
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>0.09139784946236559</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L24">
+        <v>55</v>
+      </c>
+      <c r="M24">
+        <v>55</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.5796344647519582</v>
+      </c>
+      <c r="L25">
+        <v>222</v>
+      </c>
+      <c r="M25">
+        <v>222</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="L26">
+        <v>150</v>
+      </c>
+      <c r="M26">
+        <v>150</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
+      <c r="M27">
+        <v>45</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="L28">
+        <v>171</v>
+      </c>
+      <c r="M28">
+        <v>171</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>169</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7397260273972602</v>
-      </c>
-      <c r="L19">
-        <v>54</v>
-      </c>
-      <c r="M19">
-        <v>54</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.475</v>
+      </c>
+      <c r="L30">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="L20">
-        <v>41</v>
-      </c>
-      <c r="M20">
-        <v>41</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L21">
-        <v>23</v>
-      </c>
-      <c r="M21">
-        <v>23</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L22">
-        <v>27</v>
-      </c>
-      <c r="M22">
-        <v>27</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L23">
-        <v>13</v>
-      </c>
-      <c r="M23">
-        <v>13</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.6572769953051644</v>
-      </c>
-      <c r="L25">
-        <v>140</v>
-      </c>
-      <c r="M25">
-        <v>140</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K27">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L27">
-        <v>80</v>
-      </c>
-      <c r="M27">
-        <v>80</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
+      <c r="K31">
+        <v>0.4686192468619247</v>
+      </c>
+      <c r="L31">
+        <v>112</v>
+      </c>
+      <c r="M31">
+        <v>112</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K28">
-        <v>0.55</v>
-      </c>
-      <c r="L28">
-        <v>11</v>
-      </c>
-      <c r="M28">
-        <v>11</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.5426356589147286</v>
-      </c>
-      <c r="L29">
-        <v>70</v>
-      </c>
-      <c r="M29">
-        <v>70</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.4891304347826087</v>
-      </c>
-      <c r="L30">
-        <v>45</v>
-      </c>
-      <c r="M30">
-        <v>45</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L31">
-        <v>18</v>
-      </c>
-      <c r="M31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K32">
-        <v>0.4571428571428571</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1869,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.3571428571428572</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1895,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.3125</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1921,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.2702702702702703</v>
+        <v>0.3125</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1947,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.2037037037037037</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1973,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.09595959595959595</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1999,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>179</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.07655502392344497</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2025,553 +1947,813 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>193</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.05882352941176471</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>208</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.05482456140350877</v>
+        <v>0.06147540983606557</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.05121951219512195</v>
+        <v>0.05677655677655678</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>389</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.04218362282878412</v>
+        <v>0.05246913580246913</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>386</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.04126984126984127</v>
+        <v>0.05091819699499165</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>302</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.03386004514672687</v>
+        <v>0.048834628190899</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>428</v>
+        <v>857</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.03365384615384615</v>
+        <v>0.0486322188449848</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>804</v>
+        <v>939</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.03286384976525822</v>
+        <v>0.04734411085450346</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>412</v>
+        <v>825</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.03239740820734342</v>
+        <v>0.0447427293064877</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>896</v>
+        <v>854</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.03134796238244514</v>
+        <v>0.03860294117647059</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M48">
         <v>21</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>618</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.028328611898017</v>
+        <v>0.03788447111777944</v>
       </c>
       <c r="L49">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="M49">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>343</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.02510460251046025</v>
+        <v>0.0375</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N50">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>466</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.02325581395348837</v>
+        <v>0.03697617091207888</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O51">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1092</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.022181146025878</v>
+        <v>0.03331238214959145</v>
       </c>
       <c r="L52">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N52">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>529</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.01934134866701516</v>
+        <v>0.03280224929709466</v>
       </c>
       <c r="L53">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1876</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.01810436634717785</v>
+        <v>0.03171417101565636</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>922</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.01715438950554995</v>
+        <v>0.02828854314002829</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1948</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.01687763713080169</v>
+        <v>0.0275</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N56">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>932</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.01669877970456005</v>
+        <v>0.02660472972972973</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="N57">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="O57">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1531</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K58">
-        <v>0.01436781609195402</v>
+        <v>0.02571638501102131</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N58">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="O58">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>1715</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59">
+        <v>0.02551679586563307</v>
+      </c>
+      <c r="L59">
+        <v>79</v>
+      </c>
+      <c r="M59">
+        <v>90</v>
+      </c>
+      <c r="N59">
+        <v>0.88</v>
+      </c>
+      <c r="O59">
+        <v>0.12</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60">
+        <v>0.02505827505827506</v>
+      </c>
+      <c r="L60">
+        <v>129</v>
+      </c>
+      <c r="M60">
+        <v>146</v>
+      </c>
+      <c r="N60">
+        <v>0.88</v>
+      </c>
+      <c r="O60">
+        <v>0.12</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K61">
+        <v>0.02332814930015552</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
+      <c r="M61">
+        <v>33</v>
+      </c>
+      <c r="N61">
+        <v>0.91</v>
+      </c>
+      <c r="O61">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62">
+        <v>0.02307692307692308</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K59">
-        <v>0.006289308176100629</v>
-      </c>
-      <c r="L59">
-        <v>10</v>
-      </c>
-      <c r="M59">
-        <v>17</v>
-      </c>
-      <c r="N59">
-        <v>0.59</v>
-      </c>
-      <c r="O59">
-        <v>0.41</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1580</v>
+      <c r="K63">
+        <v>0.02233597021870638</v>
+      </c>
+      <c r="L63">
+        <v>48</v>
+      </c>
+      <c r="M63">
+        <v>57</v>
+      </c>
+      <c r="N63">
+        <v>0.84</v>
+      </c>
+      <c r="O63">
+        <v>0.16</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K64">
+        <v>0.02176165803108808</v>
+      </c>
+      <c r="L64">
+        <v>21</v>
+      </c>
+      <c r="M64">
+        <v>24</v>
+      </c>
+      <c r="N64">
+        <v>0.88</v>
+      </c>
+      <c r="O64">
+        <v>0.12</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65">
+        <v>0.02130434782608696</v>
+      </c>
+      <c r="L65">
+        <v>49</v>
+      </c>
+      <c r="M65">
+        <v>58</v>
+      </c>
+      <c r="N65">
+        <v>0.84</v>
+      </c>
+      <c r="O65">
+        <v>0.16</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66">
+        <v>0.02130122713591109</v>
+      </c>
+      <c r="L66">
+        <v>92</v>
+      </c>
+      <c r="M66">
+        <v>101</v>
+      </c>
+      <c r="N66">
+        <v>0.91</v>
+      </c>
+      <c r="O66">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67">
+        <v>0.01759014951627089</v>
+      </c>
+      <c r="L67">
+        <v>20</v>
+      </c>
+      <c r="M67">
+        <v>23</v>
+      </c>
+      <c r="N67">
+        <v>0.87</v>
+      </c>
+      <c r="O67">
+        <v>0.13</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68">
+        <v>0.01631116687578419</v>
+      </c>
+      <c r="L68">
+        <v>39</v>
+      </c>
+      <c r="M68">
+        <v>42</v>
+      </c>
+      <c r="N68">
+        <v>0.93</v>
+      </c>
+      <c r="O68">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K69">
+        <v>0.01630094043887147</v>
+      </c>
+      <c r="L69">
+        <v>52</v>
+      </c>
+      <c r="M69">
+        <v>63</v>
+      </c>
+      <c r="N69">
+        <v>0.83</v>
+      </c>
+      <c r="O69">
+        <v>0.17</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>3138</v>
       </c>
     </row>
   </sheetData>
